--- a/doc_xls_en/Etiket_dlya_perevoda_na_angl_Lymi_DMAEkrem_eng-US.xlsx
+++ b/doc_xls_en/Etiket_dlya_perevoda_na_angl_Lymi_DMAEkrem_eng-US.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\переводы\аркадия\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28620" windowHeight="12920"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 3" sheetId="1" r:id="rId1"/>
@@ -185,20 +180,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Lifting Cream with Bio-DMA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>LymiWhite Cream</t>
     </r>
   </si>
@@ -280,17 +261,44 @@
     </r>
   </si>
   <si>
-    <t>вода дистиллированная; масла: ши, яичное,  зародышей пшеницы, соевое, парфюмерное; жидкий воск, гликолипиды, глицерин, моноглицериды, циклометикон, лецитин, ДМАЭ тартрат, β-1,3-глюкан, экстракт солодки, ВЖС, комплекс витаминов А и Е, карнозин, ВНТ, феноксиэтанол, метилпарагидроксибензоат, пропилпарагидроксибензоат, диазолидинил мочевина и йодпропинилбутилкарбамат, лимонная кислота, ароматизатор</t>
-  </si>
-  <si>
-    <t>вода дистиллированная, масла: рисовых отрубей, зародышей пшеницы, парфюмерное; жидкий воск, экстракт дрожжей Candida saitoana, гликозиды этоксилированные, циклометикон, полиакрилатный кроссполимер, витамин F, феруловая кислота, экстракт корня куркумы, лецитин, экстракт солодки, β-1,3-глюкан, витамин E, пропиленгликоль,  карнозин, гиалуроновая кислота, метилпарагидроксибензоат, пропилпарагидроксибензоат, диазолидинил мочевина и йодпропинил бутилкарбамат, феноксиэтанол, ВНТ, ароматизатор.</t>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, ETHYLHEXYL STEARATE, GLYCINE SOJA (SOYBEAN) OIL, PARAFFINUM LIQUIDUM, GLYCERIN, POLYGLYCERYL-3 METHYLGLUCOSE DISTEARATE, GLYCERYL STEARATE, CYCLOPENTASILOXANE, DIMETHYLAMINOETHANOL TARTRATE, LECITHIN, BUTYROSPERMUM PARKII (SHEA) BUTTER, TRITICUM VULGARE (WHEAT) GERM OIL, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, BETA-GLUCAN, EGG OIL, CETEARYL ALCOHOL, TOCOPHERYL ACETATE, RETINYL PALMITATE, CARNOSINE, POLYACRYLATE CROSSPOLYMER-6, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lifting Cream with Bio-DMAE</t>
+  </si>
+  <si>
+    <r>
+      <t>Ingredients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> WATER, CETEARYL ISONONANOATE, HYDROLYZED CANDIDA SAITOANA EXTRACT, ORYZA SATIVA (RICE) BRAN OIL, METHYL GLUCETH-20, CYCLOPENTASILOXANE, POLYACRYLATE CROSSPOLYMER-6, PARAFFINUM LIQUIDUM, FERULIC ACID, LECITHIN, TRITICUM VULGARE (WHEAT) GERM OIL, ETHYL LINOLEATE (AND) ETHYL LINOLENATE (AND) ETHYL OLEATE, GLYCYRRHIZA GLABRA (LICORICE) ROOT EXTRACT, PROPYLENE GLYCOL, TETRAHYDRODIFERULOYLMETHANE, BETA-GLUCAN, CARNOSINE, TOCOPHERYL ACETATE, SODIUM HYALURONATE, BHT, PHENOXYETHANOL, METHYLPARABEN, PROPYLPARABEN, PROPYLENE GLYCOL (AND) DIAZOLIDINYL UREA (AND) IODOPROPYNYL BUTYLCARBAMATE, FRAGRANCE.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +402,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -484,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -523,12 +546,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,17 +858,17 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" customWidth="1"/>
-    <col min="6" max="6" width="33.54296875" customWidth="1"/>
-    <col min="7" max="7" width="68.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -858,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -866,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,45 +903,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="117" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="143" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="11"/>
